--- a/PicoGreen_Plots/20231019_PicoGreenRepeat_PolymerScreen.xlsx
+++ b/PicoGreen_Plots/20231019_PicoGreenRepeat_PolymerScreen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Kumar-Biomaterials-Lab/PicoGreen_Plots/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/PicoGreen_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF1A705-601B-5C42-82DB-46BF2880A303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7E5EF3-9E54-B34B-A923-262F34F81DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3080" yWindow="500" windowWidth="21820" windowHeight="19300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3080" yWindow="660" windowWidth="21820" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
   <si>
     <t>Software Version</t>
   </si>
@@ -216,9 +216,6 @@
   </si>
   <si>
     <t>pDNA</t>
-  </si>
-  <si>
-    <t>DMA B1</t>
   </si>
 </sst>
 </file>
@@ -739,7 +736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O53"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="D40" sqref="D40:L45"/>
     </sheetView>
   </sheetViews>
@@ -1551,7 +1548,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1919,7 +1916,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1959,69 +1956,37 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B4">
-        <v>27.219050407456201</v>
+        <v>3.6890645586297759</v>
       </c>
       <c r="C4">
-        <v>1.0188656669866805</v>
+        <v>0.12440240703059115</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5">
-        <v>3.6890645586297759</v>
+        <v>8.4175084175084187</v>
       </c>
       <c r="C5">
-        <v>0.12440240703059115</v>
+        <v>0.734146272424678</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6">
-        <v>2.4056995071487828</v>
-      </c>
-      <c r="C6">
-        <v>3.660364522521771E-2</v>
-      </c>
+      <c r="A6" s="22"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7">
-        <v>8.4175084175084187</v>
-      </c>
-      <c r="C7">
-        <v>0.734146272424678</v>
-      </c>
+      <c r="A7" s="22"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8">
-        <v>10.564583028351143</v>
-      </c>
-      <c r="C8">
-        <v>1.3304643257894737</v>
-      </c>
+      <c r="A8" s="22"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9">
-        <v>9.9887766554433224</v>
-      </c>
-      <c r="C9">
-        <v>0.96982446067724459</v>
-      </c>
+      <c r="A9" s="22"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="F16" s="22"/>

--- a/PicoGreen_Plots/20231019_PicoGreenRepeat_PolymerScreen.xlsx
+++ b/PicoGreen_Plots/20231019_PicoGreenRepeat_PolymerScreen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/PicoGreen_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7E5EF3-9E54-B34B-A923-262F34F81DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F898646E-4E91-7D4B-A7A9-4FCB383DE2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="660" windowWidth="21820" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
   <si>
     <t>Software Version</t>
   </si>
@@ -216,6 +216,21 @@
   </si>
   <si>
     <t>pDNA</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G3</t>
   </si>
 </sst>
 </file>
@@ -1916,7 +1931,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1945,7 +1960,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B3">
         <v>18.030547016054264</v>
@@ -1956,7 +1971,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>3.6890645586297759</v>
@@ -1967,20 +1982,24 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6">
         <v>8.4175084175084187</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>0.734146272424678</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="22"/>
-    </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="22"/>
+      <c r="A7" s="22" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="22"/>
